--- a/model/ernstats.xlsx
+++ b/model/ernstats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcruvolo/Github/projects-rd-erns/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141B3D5-179A-C74B-AE01-AA8852D4C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618F744A-DDFF-6E4B-8EF0-9009E8A0F50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3180" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
-  <si>
-    <t>ernstats</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
   <si>
     <t>dataproviders</t>
   </si>
@@ -55,15 +52,6 @@
     <t>Stats used in the dashboard</t>
   </si>
   <si>
-    <t>ernstats_dataproviders</t>
-  </si>
-  <si>
-    <t>ernstats_inclusionCriteria</t>
-  </si>
-  <si>
-    <t>ernstats_stats</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>_id</t>
-  </si>
-  <si>
     <t>groupID</t>
   </si>
   <si>
@@ -361,9 +346,6 @@
     <t>relationIRI</t>
   </si>
   <si>
-    <t>ERN Stats</t>
-  </si>
-  <si>
     <t>components</t>
   </si>
   <si>
@@ -373,19 +355,58 @@
     <t>Data by component</t>
   </si>
   <si>
-    <t>ernstats_components</t>
-  </si>
-  <si>
     <t>refEntity</t>
   </si>
   <si>
-    <t>Descriptives on enrolled patients and data providers (v1.4.1, 2023-06-13)</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>mref</t>
+    <t>component</t>
+  </si>
+  <si>
+    <t>xref</t>
+  </si>
+  <si>
+    <t>mappedBy</t>
+  </si>
+  <si>
+    <t>onetomany</t>
+  </si>
+  <si>
+    <t>Descriptives on enrolled patients and data providers (v1.5.0, 2023-06-15)</t>
+  </si>
+  <si>
+    <t>stats_dataproviders</t>
+  </si>
+  <si>
+    <t>stats_inclusionCriteria</t>
+  </si>
+  <si>
+    <t>stats_stats</t>
+  </si>
+  <si>
+    <t>stats_components</t>
+  </si>
+  <si>
+    <t>reference back to component</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>A standardized representation of the location of a person, business, building, or organization.</t>
+  </si>
+  <si>
+    <t>NCIT_C25407</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25407</t>
+  </si>
+  <si>
+    <t>alternativeIdentifier</t>
   </si>
 </sst>
 </file>
@@ -758,7 +779,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,24 +791,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +821,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,72 +834,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -905,65 +926,69 @@
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -978,548 +1003,629 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
         <v>119</v>
       </c>
-      <c r="I40" t="s">
-        <v>120</v>
-      </c>
-      <c r="J40" t="s">
-        <v>12</v>
+      <c r="K43" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1529,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1546,242 +1652,262 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1808,6 +1934,8 @@
     <hyperlink ref="F11" r:id="rId20" location="isAssociatedWith" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
     <hyperlink ref="C12" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
     <hyperlink ref="F12" r:id="rId22" location="isAssociatedWith" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{9F1CAEE2-9FAB-654C-AF34-7E08180E55AF}"/>
+    <hyperlink ref="F13" r:id="rId24" location="isAssociatedWith" xr:uid="{3E712B0D-B8E2-8843-BD78-2FD0FDB7EB6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
